--- a/result/mySpreadsheet.xlsx
+++ b/result/mySpreadsheet.xlsx
@@ -46,138 +46,144 @@
     <t>802</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>劉宇桐</t>
+  </si>
+  <si>
+    <t>籃球社</t>
+  </si>
+  <si>
+    <t>電影欣賞社</t>
+  </si>
+  <si>
+    <t>熱舞社</t>
+  </si>
+  <si>
+    <t>魔術社</t>
+  </si>
+  <si>
+    <t>拳擊社</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>吳瑞玲</t>
+  </si>
+  <si>
+    <t>閱讀欣賞社</t>
+  </si>
+  <si>
+    <t>生命教育社</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>李恭耀</t>
+  </si>
+  <si>
+    <t>微電影社</t>
+  </si>
+  <si>
+    <t>桌遊社</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>徐兆學</t>
+  </si>
+  <si>
+    <t>開心農場</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>王宇鋒</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>李明珊</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>林愷傑</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>洪于婷</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>王楚鈞</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>周百坊</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>黃俊維</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>林弘鈞</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>鄭仁煇</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>劉先哲</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>蘇家圻</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>沈威辰</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
     <t>劉沛龍</t>
   </si>
   <si>
-    <t>籃球社</t>
-  </si>
-  <si>
-    <t>桌遊社</t>
-  </si>
-  <si>
-    <t>電影欣賞社</t>
-  </si>
-  <si>
-    <t>開心農場</t>
-  </si>
-  <si>
-    <t>閱讀欣賞社</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
     <t>陳亞廷</t>
   </si>
   <si>
-    <t>熱舞社</t>
-  </si>
-  <si>
-    <t>微電影社</t>
-  </si>
-  <si>
-    <t>生命教育社</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>李恭耀</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>徐兆學</t>
-  </si>
-  <si>
-    <t>拳擊社</t>
-  </si>
-  <si>
-    <t>魔術社</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>王宇鋒</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>李明珊</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>林愷傑</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>洪于婷</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>王楚鈞</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>周百坊</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>黃俊維</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>林弘鈞</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>鄭仁煇</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>劉宇桐</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>劉先哲</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>蘇家圻</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>沈威辰</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
@@ -212,12 +218,6 @@
   </si>
   <si>
     <t>翁瑄憶</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>吳瑞玲</t>
   </si>
   <si>
     <t>35</t>
@@ -412,7 +412,7 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
@@ -423,28 +423,28 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -452,28 +452,28 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -487,22 +487,22 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -516,22 +516,22 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -545,22 +545,22 @@
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -574,22 +574,22 @@
         <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -606,16 +606,16 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
@@ -635,16 +635,16 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
         <v>12</v>
@@ -664,16 +664,16 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
@@ -693,16 +693,16 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
@@ -722,16 +722,16 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
@@ -751,16 +751,16 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H15" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I15" t="s">
         <v>12</v>
@@ -780,16 +780,16 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
         <v>12</v>
@@ -812,13 +812,13 @@
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I17" t="s">
         <v>12</v>
@@ -838,10 +838,10 @@
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
         <v>27</v>
@@ -867,16 +867,16 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H19" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
         <v>12</v>
@@ -896,16 +896,16 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
         <v>12</v>
@@ -925,16 +925,16 @@
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I21" t="s">
         <v>12</v>
@@ -954,16 +954,16 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I22" t="s">
         <v>12</v>
@@ -983,16 +983,16 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I23" t="s">
         <v>12</v>
@@ -1012,16 +1012,16 @@
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I24" t="s">
         <v>12</v>
@@ -1041,16 +1041,16 @@
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G25" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H25" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I25" t="s">
         <v>12</v>
@@ -1070,16 +1070,16 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I26" t="s">
         <v>12</v>
@@ -1099,16 +1099,16 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G27" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I27" t="s">
         <v>12</v>
@@ -1128,16 +1128,16 @@
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I28" t="s">
         <v>12</v>
@@ -1157,16 +1157,16 @@
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s">
         <v>12</v>
@@ -1183,22 +1183,22 @@
         <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G30" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H30" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I30" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
@@ -1212,22 +1212,22 @@
         <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G31" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I31" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
@@ -1241,22 +1241,22 @@
         <v>81</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F32" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I32" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33">
@@ -1270,22 +1270,22 @@
         <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E33" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F33" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34">
@@ -1299,22 +1299,22 @@
         <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G34" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H34" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I34" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
